--- a/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/65e358d9c5e3ee026268b2a7_semantic_fluency_fullA_2024-03-09_14h05.38.987_recording_Mic_cattestresgis_trials_10_2024-03-09_14h32.55.226.xlsx
+++ b/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/65e358d9c5e3ee026268b2a7_semantic_fluency_fullA_2024-03-09_14h05.38.987_recording_Mic_cattestresgis_trials_10_2024-03-09_14h32.55.226.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/GroupA/transcriptions_collocations_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D130FEF-B081-1C43-9CF2-0EA21CC5ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC51C719-E528-3244-B536-BDD706ECC895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32240" yWindow="660" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Word</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>manager</t>
-  </si>
-  <si>
-    <t>there is</t>
   </si>
   <si>
     <t>Engineers</t>
@@ -500,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,7 +549,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>7.1</v>
@@ -580,7 +577,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>10.9</v>
@@ -594,7 +591,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -636,7 +633,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>24.3</v>
@@ -692,7 +689,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>35.6</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>37.299999999999997</v>
@@ -734,7 +731,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>42.9</v>
@@ -748,7 +745,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>50.4</v>
@@ -765,24 +762,24 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>55.3</v>
+        <v>57.9</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>59.7</v>
       </c>
       <c r="D19">
-        <v>0.79001522064208984</v>
+        <v>0.95513075590133667</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>57.9</v>
+        <v>59.7</v>
       </c>
       <c r="C20">
-        <v>59.7</v>
+        <v>61.1</v>
       </c>
       <c r="D20">
         <v>0.95513075590133667</v>
@@ -790,13 +787,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>59.7</v>
+        <v>61.1</v>
       </c>
       <c r="C21">
-        <v>61.1</v>
+        <v>62.3</v>
       </c>
       <c r="D21">
         <v>0.95513075590133667</v>
@@ -807,10 +804,10 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>61.1</v>
+        <v>62.3</v>
       </c>
       <c r="C22">
-        <v>62.3</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>0.95513075590133667</v>
@@ -818,16 +815,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>62.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>66.2</v>
       </c>
       <c r="D23">
-        <v>0.95513075590133667</v>
+        <v>0.93326878547668457</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -835,10 +832,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>64.900000000000006</v>
+        <v>68.3</v>
       </c>
       <c r="C24">
-        <v>66.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D24">
         <v>0.93326878547668457</v>
@@ -849,10 +846,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>68.3</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C25">
-        <v>68.900000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D25">
         <v>0.93326878547668457</v>
@@ -863,10 +860,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>68.900000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C26">
-        <v>70.099999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="D26">
         <v>0.93326878547668457</v>
@@ -874,27 +871,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>70.099999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="C27">
-        <v>70.8</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="D27">
-        <v>0.93326878547668457</v>
+        <v>0.9748154878616333</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>73.2</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C28">
-        <v>75.900000000000006</v>
+        <v>77.2</v>
       </c>
       <c r="D28">
         <v>0.9748154878616333</v>
@@ -905,27 +902,27 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>75.900000000000006</v>
+        <v>81.7</v>
       </c>
       <c r="C29">
-        <v>77.2</v>
+        <v>83.5</v>
       </c>
       <c r="D29">
-        <v>0.9748154878616333</v>
+        <v>0.97665739059448242</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>81.7</v>
+        <v>85.6</v>
       </c>
       <c r="C30">
-        <v>83.5</v>
+        <v>86.3</v>
       </c>
       <c r="D30">
-        <v>0.97665739059448242</v>
+        <v>0.97655928134918213</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,41 +930,41 @@
         <v>18</v>
       </c>
       <c r="B31">
-        <v>85.6</v>
+        <v>87.7</v>
       </c>
       <c r="C31">
-        <v>86.3</v>
+        <v>89.7</v>
       </c>
       <c r="D31">
-        <v>0.97655928134918213</v>
+        <v>0.93922418355941772</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>87.7</v>
+        <v>97.6</v>
       </c>
       <c r="C32">
-        <v>89.7</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>0.93922418355941772</v>
+        <v>0.98390626907348633</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>97.6</v>
+        <v>105</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>0.98390626907348633</v>
+        <v>0.88498759269714355</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,10 +972,10 @@
         <v>20</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34">
         <v>0.88498759269714355</v>
@@ -989,26 +986,12 @@
         <v>21</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>114.4</v>
       </c>
       <c r="C35">
-        <v>109</v>
+        <v>115.1</v>
       </c>
       <c r="D35">
-        <v>0.88498759269714355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>114.4</v>
-      </c>
-      <c r="C36">
-        <v>115.1</v>
-      </c>
-      <c r="D36">
         <v>0.93386948108673096</v>
       </c>
     </row>
